--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,7 +424,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -426,7 +432,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -434,55 +440,55 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26.2169480385347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26.12018204701069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.56389055882488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994146108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -490,44 +496,44 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.5626640325822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309123408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -551,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -559,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -567,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -583,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -591,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -599,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>13.82750801607912</v>
+      </c>
+      <c r="C2">
+        <v>6.016819136254905</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7.408884851273618</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>31.97508315414753</v>
+      </c>
+      <c r="H2">
+        <v>11.4333148443508</v>
+      </c>
+      <c r="I2">
+        <v>18.5904391980669</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>11.28612891872972</v>
+      </c>
+      <c r="L2">
+        <v>6.985592189384109</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>12.88077057088475</v>
+      </c>
+      <c r="C3">
+        <v>5.81697830075663</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7.280147396567529</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>31.86863738595989</v>
+      </c>
+      <c r="H3">
+        <v>11.53402632143374</v>
+      </c>
+      <c r="I3">
+        <v>18.77325237051275</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10.5839045030363</v>
+      </c>
+      <c r="L3">
+        <v>6.789431323400891</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.29183228852491</v>
+      </c>
+      <c r="C4">
+        <v>5.690784096731876</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.204187485962223</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>31.84144117856724</v>
+      </c>
+      <c r="H4">
+        <v>11.60366520577234</v>
+      </c>
+      <c r="I4">
+        <v>18.90009583934197</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.12948740868945</v>
+      </c>
+      <c r="L4">
+        <v>6.670086606912526</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.05849725792128</v>
+      </c>
+      <c r="C5">
+        <v>5.638508224454357</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.174028340093913</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>31.83951731929887</v>
+      </c>
+      <c r="H5">
+        <v>11.63392460218073</v>
+      </c>
+      <c r="I5">
+        <v>18.95528862894844</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>9.938462968420213</v>
+      </c>
+      <c r="L5">
+        <v>6.621787925033814</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.01937101893557</v>
+      </c>
+      <c r="C6">
+        <v>5.629777358328682</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7.169068991670866</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>31.83973806364715</v>
+      </c>
+      <c r="H6">
+        <v>11.6390604910206</v>
+      </c>
+      <c r="I6">
+        <v>18.96466023753008</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>9.90639066141458</v>
+      </c>
+      <c r="L6">
+        <v>6.61378997950774</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.28871108349312</v>
+      </c>
+      <c r="C7">
+        <v>5.690082491288114</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7.20377750542436</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>31.84137873392087</v>
+      </c>
+      <c r="H7">
+        <v>11.60406578165964</v>
+      </c>
+      <c r="I7">
+        <v>18.90082621809613</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10.12693484736628</v>
+      </c>
+      <c r="L7">
+        <v>6.669433797006922</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.50800582254713</v>
+      </c>
+      <c r="C8">
+        <v>5.948653434105917</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.363867806404794</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>31.93020049010219</v>
+      </c>
+      <c r="H8">
+        <v>11.4663707645244</v>
+      </c>
+      <c r="I8">
+        <v>18.65034011309514</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>11.04882389551522</v>
+      </c>
+      <c r="L8">
+        <v>6.91776242116778</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.68697080537722</v>
+      </c>
+      <c r="C9">
+        <v>6.427069153106714</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.701388677429436</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
+      </c>
+      <c r="G9">
+        <v>32.42605041597087</v>
+      </c>
+      <c r="H9">
+        <v>11.26214467292389</v>
+      </c>
+      <c r="I9">
+        <v>18.2829935578977</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>12.67272544308501</v>
+      </c>
+      <c r="L9">
+        <v>7.411024861398434</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>17.13125805437544</v>
+      </c>
+      <c r="C10">
+        <v>6.76020582586442</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.962529305414033</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>33.01103799896953</v>
+      </c>
+      <c r="H10">
+        <v>11.15798634256834</v>
+      </c>
+      <c r="I10">
+        <v>18.10054182854206</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>13.75509877656092</v>
+      </c>
+      <c r="L10">
+        <v>7.774317540506508</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>17.75523124818608</v>
+      </c>
+      <c r="C11">
+        <v>6.907683810719241</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8.083939130498255</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>33.3299486934924</v>
+      </c>
+      <c r="H11">
+        <v>11.12194789084298</v>
+      </c>
+      <c r="I11">
+        <v>18.03936933119672</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>14.22391777966352</v>
+      </c>
+      <c r="L11">
+        <v>7.939263687973816</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>17.98684195568163</v>
+      </c>
+      <c r="C12">
+        <v>6.962943612572452</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>8.130270701711094</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>33.45867351061464</v>
+      </c>
+      <c r="H12">
+        <v>11.11005652675307</v>
+      </c>
+      <c r="I12">
+        <v>18.01959763801394</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>14.39810483806724</v>
+      </c>
+      <c r="L12">
+        <v>8.001643263412937</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>17.93716707934872</v>
+      </c>
+      <c r="C13">
+        <v>6.951068508622922</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8.120276814725216</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>33.43059064344349</v>
+      </c>
+      <c r="H13">
+        <v>11.11253739688727</v>
+      </c>
+      <c r="I13">
+        <v>18.02370070961828</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>14.36073853609468</v>
+      </c>
+      <c r="L13">
+        <v>7.988212859839256</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>17.77437922973511</v>
+      </c>
+      <c r="C14">
+        <v>6.912241824626316</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8.087743821800846</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>33.34037739187598</v>
+      </c>
+      <c r="H14">
+        <v>11.12093365492208</v>
+      </c>
+      <c r="I14">
+        <v>18.0376731903748</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>14.23831501458887</v>
+      </c>
+      <c r="L14">
+        <v>7.94439752063311</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.67406056673547</v>
+      </c>
+      <c r="C15">
+        <v>6.88838294990946</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8.067862273421888</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309123409</v>
+      </c>
+      <c r="G15">
+        <v>33.28616639943488</v>
+      </c>
+      <c r="H15">
+        <v>11.12630906724937</v>
+      </c>
+      <c r="I15">
+        <v>18.04668141579251</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>14.16289289971749</v>
+      </c>
+      <c r="L15">
+        <v>7.917547720109865</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>17.08982156309884</v>
+      </c>
+      <c r="C16">
+        <v>6.75048566151652</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.95464578072349</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.63463543028809</v>
+      </c>
+      <c r="G16">
+        <v>32.99129079324386</v>
+      </c>
+      <c r="H16">
+        <v>11.16058025744949</v>
+      </c>
+      <c r="I16">
+        <v>18.10500019877933</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>13.72398984870252</v>
+      </c>
+      <c r="L16">
+        <v>7.763528285060771</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>16.72300094130077</v>
+      </c>
+      <c r="C17">
+        <v>6.664845385475041</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.885846336949995</v>
+      </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>32.82418534941598</v>
+      </c>
+      <c r="H17">
+        <v>11.18459592442004</v>
+      </c>
+      <c r="I17">
+        <v>18.14654332757006</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>13.4487319841486</v>
+      </c>
+      <c r="L17">
+        <v>7.668933201049777</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>16.50890071376291</v>
+      </c>
+      <c r="C18">
+        <v>6.615204320745288</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.846521995220685</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239618</v>
+      </c>
+      <c r="G18">
+        <v>32.73301956242518</v>
+      </c>
+      <c r="H18">
+        <v>11.19946889671606</v>
+      </c>
+      <c r="I18">
+        <v>18.17247602591774</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>13.28819057357587</v>
+      </c>
+      <c r="L18">
+        <v>7.614496506863647</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>16.43587282052559</v>
+      </c>
+      <c r="C19">
+        <v>6.598331061261852</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.833250555535928</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494150058</v>
+      </c>
+      <c r="G19">
+        <v>32.70299079863575</v>
+      </c>
+      <c r="H19">
+        <v>11.20468298956342</v>
+      </c>
+      <c r="I19">
+        <v>18.18159894234272</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>13.23345144696737</v>
+      </c>
+      <c r="L19">
+        <v>7.596061560297645</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>16.76237143843159</v>
+      </c>
+      <c r="C20">
+        <v>6.674001612416719</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7.893144712888136</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731404</v>
+      </c>
+      <c r="G20">
+        <v>32.84145908900225</v>
+      </c>
+      <c r="H20">
+        <v>11.18192885500064</v>
+      </c>
+      <c r="I20">
+        <v>18.14190824971845</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>13.47826316035538</v>
+      </c>
+      <c r="L20">
+        <v>7.679006201028944</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>17.82232019914252</v>
+      </c>
+      <c r="C21">
+        <v>6.923662083327664</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8.097290027793754</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>33.36665634131537</v>
+      </c>
+      <c r="H21">
+        <v>11.11841879230409</v>
+      </c>
+      <c r="I21">
+        <v>18.03347494661179</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>14.27436416626446</v>
+      </c>
+      <c r="L21">
+        <v>7.957269629344549</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>18.48785033746272</v>
+      </c>
+      <c r="C22">
+        <v>7.083411195470749</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>8.23278006052438</v>
+      </c>
       <c r="F22">
         <v>40.81974568026789</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>33.75645791566338</v>
+      </c>
+      <c r="H22">
+        <v>11.08720784126902</v>
+      </c>
+      <c r="I22">
+        <v>17.98251323707366</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>14.77519202449337</v>
+      </c>
+      <c r="L22">
+        <v>8.138640977001273</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>18.13510754503068</v>
+      </c>
+      <c r="C23">
+        <v>6.998462275230617</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8.160283108854667</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>33.54403741450135</v>
+      </c>
+      <c r="H23">
+        <v>11.10288038351616</v>
+      </c>
+      <c r="I23">
+        <v>18.00780312673551</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>14.50965648621928</v>
+      </c>
+      <c r="L23">
+        <v>8.041894811327674</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>16.74458204139103</v>
+      </c>
+      <c r="C24">
+        <v>6.669863344513019</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7.88984440114023</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>32.83363438036994</v>
+      </c>
+      <c r="H24">
+        <v>11.18313132591188</v>
+      </c>
+      <c r="I24">
+        <v>18.14399740532497</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>13.4649192578429</v>
+      </c>
+      <c r="L24">
+        <v>7.674452359117575</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>15.12530909908195</v>
+      </c>
+      <c r="C25">
+        <v>6.30082191259765</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7.607680731179007</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>32.25486539680056</v>
+      </c>
+      <c r="H25">
+        <v>11.30977804253381</v>
+      </c>
+      <c r="I25">
+        <v>18.36792922347453</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>12.25299039230913</v>
+      </c>
+      <c r="L25">
+        <v>7.277232477311808</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82750801607912</v>
+        <v>12.9028481088006</v>
       </c>
       <c r="C2">
-        <v>6.016819136254905</v>
+        <v>6.328011044005836</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.408884851273618</v>
+        <v>11.13693434549475</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>31.97508315414753</v>
+        <v>41.85796577197106</v>
       </c>
       <c r="H2">
-        <v>11.4333148443508</v>
+        <v>17.64577311108699</v>
       </c>
       <c r="I2">
-        <v>18.5904391980669</v>
+        <v>27.69421552867239</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.28612891872972</v>
+        <v>10.48891585163557</v>
       </c>
       <c r="L2">
-        <v>6.985592189384109</v>
+        <v>9.985178365051512</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.88077057088475</v>
+        <v>12.67711030025141</v>
       </c>
       <c r="C3">
-        <v>5.81697830075663</v>
+        <v>6.260596087588456</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.280147396567529</v>
+        <v>11.14247955847833</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>31.86863738595989</v>
+        <v>41.98770798483827</v>
       </c>
       <c r="H3">
-        <v>11.53402632143374</v>
+        <v>17.70758112158418</v>
       </c>
       <c r="I3">
-        <v>18.77325237051275</v>
+        <v>27.8033579276712</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.5839045030363</v>
+        <v>10.33935593532371</v>
       </c>
       <c r="L3">
-        <v>6.789431323400891</v>
+        <v>9.974354823361475</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.29183228852491</v>
+        <v>12.53908135891781</v>
       </c>
       <c r="C4">
-        <v>5.690784096731876</v>
+        <v>6.218121665259912</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.204187485962223</v>
+        <v>11.14777588125694</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>31.84144117856724</v>
+        <v>42.07962878965829</v>
       </c>
       <c r="H4">
-        <v>11.60366520577234</v>
+        <v>17.74852778319295</v>
       </c>
       <c r="I4">
-        <v>18.90009583934197</v>
+        <v>27.87574070559022</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.12948740868945</v>
+        <v>10.24845791890527</v>
       </c>
       <c r="L4">
-        <v>6.670086606912526</v>
+        <v>9.969484579386549</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.05849725792128</v>
+        <v>12.48305391754437</v>
       </c>
       <c r="C5">
-        <v>5.638508224454357</v>
+        <v>6.200547786865634</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.174028340093913</v>
+        <v>11.15041032109572</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>31.83951731929887</v>
+        <v>42.12015471211669</v>
       </c>
       <c r="H5">
-        <v>11.63392460218073</v>
+        <v>17.76596668253217</v>
       </c>
       <c r="I5">
-        <v>18.95528862894844</v>
+        <v>27.90658520498286</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.938462968420213</v>
+        <v>10.21169555269707</v>
       </c>
       <c r="L5">
-        <v>6.621787925033814</v>
+        <v>9.967948245778063</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.01937101893557</v>
+        <v>12.47376615000796</v>
       </c>
       <c r="C6">
-        <v>5.629777358328682</v>
+        <v>6.197613838683204</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.169068991670866</v>
+        <v>11.150876537516</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>31.83973806364715</v>
+        <v>42.12706882222449</v>
       </c>
       <c r="H6">
-        <v>11.6390604910206</v>
+        <v>17.76890784732645</v>
       </c>
       <c r="I6">
-        <v>18.96466023753008</v>
+        <v>27.91178826041321</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.90639066141458</v>
+        <v>10.20560936551404</v>
       </c>
       <c r="L6">
-        <v>6.61378997950774</v>
+        <v>9.967720266348955</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28871108349312</v>
+        <v>12.53832475981577</v>
       </c>
       <c r="C7">
-        <v>5.690082491288114</v>
+        <v>6.217885722626796</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.20377750542436</v>
+        <v>11.14780948178412</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>31.84137873392087</v>
+        <v>42.08016293696591</v>
       </c>
       <c r="H7">
-        <v>11.60406578165964</v>
+        <v>17.7487599230835</v>
       </c>
       <c r="I7">
-        <v>18.90082621809613</v>
+        <v>27.87615123041209</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.12693484736628</v>
+        <v>10.24796093877493</v>
       </c>
       <c r="L7">
-        <v>6.669433797006922</v>
+        <v>9.969462042301796</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50800582254713</v>
+        <v>12.82493965357057</v>
       </c>
       <c r="C8">
-        <v>5.948653434105917</v>
+        <v>6.304994782557253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.363867806404794</v>
+        <v>11.13845408989004</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>31.93020049010219</v>
+        <v>41.90014778259798</v>
       </c>
       <c r="H8">
-        <v>11.4663707645244</v>
+        <v>17.66646224829217</v>
       </c>
       <c r="I8">
-        <v>18.65034011309514</v>
+        <v>27.73073223506999</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.04882389551522</v>
+        <v>10.43718104349344</v>
       </c>
       <c r="L8">
-        <v>6.91776242116778</v>
+        <v>9.981079117116266</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.68697080537722</v>
+        <v>13.38827038401731</v>
       </c>
       <c r="C9">
-        <v>6.427069153106714</v>
+        <v>6.46695018556598</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.701388677429436</v>
+        <v>11.13508956486825</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>32.42605041597087</v>
+        <v>41.64504582425904</v>
       </c>
       <c r="H9">
-        <v>11.26214467292389</v>
+        <v>17.52887957523238</v>
       </c>
       <c r="I9">
-        <v>18.2829935578977</v>
+        <v>27.4882608019614</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.67272544308501</v>
+        <v>10.81366607304106</v>
       </c>
       <c r="L9">
-        <v>7.411024861398434</v>
+        <v>10.01785450299068</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13125805437544</v>
+        <v>13.79864919051362</v>
       </c>
       <c r="C10">
-        <v>6.76020582586442</v>
+        <v>6.580167379505299</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.962529305414033</v>
+        <v>11.14170665723819</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>33.01103799896953</v>
+        <v>41.51813564390773</v>
       </c>
       <c r="H10">
-        <v>11.15798634256834</v>
+        <v>17.442347490364</v>
       </c>
       <c r="I10">
-        <v>18.10054182854206</v>
+        <v>27.33627481897953</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.75509877656092</v>
+        <v>11.09095589930993</v>
       </c>
       <c r="L10">
-        <v>7.774317540506508</v>
+        <v>10.05326448242085</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75523124818608</v>
+        <v>13.983719880657</v>
       </c>
       <c r="C11">
-        <v>6.907683810719241</v>
+        <v>6.63034541802653</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.083939130498255</v>
+        <v>11.14667785489218</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>33.3299486934924</v>
+        <v>41.47369923969604</v>
       </c>
       <c r="H11">
-        <v>11.12194789084298</v>
+        <v>17.40614978490266</v>
       </c>
       <c r="I11">
-        <v>18.03936933119672</v>
+        <v>27.27284064632861</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.22391777966352</v>
+        <v>11.21670944027825</v>
       </c>
       <c r="L11">
-        <v>7.939263687973816</v>
+        <v>10.07115995865406</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.98684195568163</v>
+        <v>14.05350152718983</v>
       </c>
       <c r="C12">
-        <v>6.962943612572452</v>
+        <v>6.649149938433747</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.130270701711094</v>
+        <v>11.14884092583745</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>33.45867351061464</v>
+        <v>41.4587956362907</v>
       </c>
       <c r="H12">
-        <v>11.11005652675307</v>
+        <v>17.39289873077952</v>
       </c>
       <c r="I12">
-        <v>18.01959763801394</v>
+        <v>27.2496426065911</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.39810483806724</v>
+        <v>11.26422964310852</v>
       </c>
       <c r="L12">
-        <v>8.001643263412937</v>
+        <v>10.07819004956744</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93716707934872</v>
+        <v>14.03848722895055</v>
       </c>
       <c r="C13">
-        <v>6.951068508622922</v>
+        <v>6.64510889950379</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.120276814725216</v>
+        <v>11.14836261496812</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>33.43059064344349</v>
+        <v>41.46191967262286</v>
       </c>
       <c r="H13">
-        <v>11.11253739688727</v>
+        <v>17.39573227634449</v>
       </c>
       <c r="I13">
-        <v>18.02370070961828</v>
+        <v>27.25460206811976</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.36073853609468</v>
+        <v>11.25400045127625</v>
       </c>
       <c r="L13">
-        <v>7.988212859839256</v>
+        <v>10.07666478023551</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.77437922973511</v>
+        <v>13.98946726497818</v>
       </c>
       <c r="C14">
-        <v>6.912241824626316</v>
+        <v>6.631896456864844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.087743821800846</v>
+        <v>11.14685019737017</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>33.34037739187598</v>
+        <v>41.47243449890068</v>
       </c>
       <c r="H14">
-        <v>11.12093365492208</v>
+        <v>17.40505046375057</v>
       </c>
       <c r="I14">
-        <v>18.0376731903748</v>
+        <v>27.27091561771951</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.23831501458887</v>
+        <v>11.2206212072509</v>
       </c>
       <c r="L14">
-        <v>7.94439752063311</v>
+        <v>10.07173326997411</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67406056673547</v>
+        <v>13.95939999153409</v>
       </c>
       <c r="C15">
-        <v>6.88838294990946</v>
+        <v>6.623777640673932</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.067862273421888</v>
+        <v>11.14596029371182</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>33.28616639943488</v>
+        <v>41.47912595573858</v>
       </c>
       <c r="H15">
-        <v>11.12630906724937</v>
+        <v>17.41081756535221</v>
       </c>
       <c r="I15">
-        <v>18.04668141579251</v>
+        <v>27.28101541163378</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.16289289971749</v>
+        <v>11.20016115263169</v>
       </c>
       <c r="L15">
-        <v>7.917547720109865</v>
+        <v>10.06874547595689</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08982156309884</v>
+        <v>13.7865159858237</v>
       </c>
       <c r="C16">
-        <v>6.75048566151652</v>
+        <v>6.576860922339732</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.95464578072349</v>
+        <v>11.14142112253766</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>32.99129079324386</v>
+        <v>41.52130822604136</v>
       </c>
       <c r="H16">
-        <v>11.16058025744949</v>
+        <v>17.44477688723056</v>
       </c>
       <c r="I16">
-        <v>18.10500019877933</v>
+        <v>27.34053542400306</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.72398984870252</v>
+        <v>11.08272600423546</v>
       </c>
       <c r="L16">
-        <v>7.763528285060771</v>
+        <v>10.05213063873118</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.72300094130077</v>
+        <v>13.67999427775943</v>
       </c>
       <c r="C17">
-        <v>6.664845385475041</v>
+        <v>6.547735130708328</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.885846336949995</v>
+        <v>11.13913781178201</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>32.82418534941598</v>
+        <v>41.5505996114868</v>
       </c>
       <c r="H17">
-        <v>11.18459592442004</v>
+        <v>17.46642143096306</v>
       </c>
       <c r="I17">
-        <v>18.14654332757006</v>
+        <v>27.37851215428022</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.4487319841486</v>
+        <v>11.01055227259254</v>
       </c>
       <c r="L17">
-        <v>7.668933201049777</v>
+        <v>10.04239330468089</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.50890071376291</v>
+        <v>13.6185779236241</v>
       </c>
       <c r="C18">
-        <v>6.615204320745288</v>
+        <v>6.530858389777566</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.846521995220685</v>
+        <v>11.13800919050546</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>32.73301956242518</v>
+        <v>41.56869806556448</v>
       </c>
       <c r="H18">
-        <v>11.19946889671606</v>
+        <v>17.47916875868232</v>
       </c>
       <c r="I18">
-        <v>18.17247602591774</v>
+        <v>27.40089218382527</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.28819057357587</v>
+        <v>10.96900599141861</v>
       </c>
       <c r="L18">
-        <v>7.614496506863647</v>
+        <v>10.03696110633354</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.43587282052559</v>
+        <v>13.59776014928153</v>
       </c>
       <c r="C19">
-        <v>6.598331061261852</v>
+        <v>6.525123051710594</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.833250555535928</v>
+        <v>11.13765881758257</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>32.70299079863575</v>
+        <v>41.57504035067227</v>
       </c>
       <c r="H19">
-        <v>11.20468298956342</v>
+        <v>17.48353593100309</v>
       </c>
       <c r="I19">
-        <v>18.18159894234272</v>
+        <v>27.40856179342916</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.23345144696737</v>
+        <v>10.95493469157663</v>
       </c>
       <c r="L19">
-        <v>7.596061560297645</v>
+        <v>10.03515089398457</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.76237143843159</v>
+        <v>13.69134950916539</v>
       </c>
       <c r="C20">
-        <v>6.674001612416719</v>
+        <v>6.550848537468493</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.893144712888136</v>
+        <v>11.13936177022705</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>32.84145908900225</v>
+        <v>41.54735195046456</v>
       </c>
       <c r="H20">
-        <v>11.18192885500064</v>
+        <v>17.46408648792068</v>
       </c>
       <c r="I20">
-        <v>18.14190824971845</v>
+        <v>27.37441388800115</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.47826316035538</v>
+        <v>11.0182391192198</v>
       </c>
       <c r="L20">
-        <v>7.679006201028944</v>
+        <v>10.0434124505348</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.82232019914252</v>
+        <v>14.0038743060147</v>
       </c>
       <c r="C21">
-        <v>6.923662083327664</v>
+        <v>6.635782661966223</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.097290027793754</v>
+        <v>11.14728682815244</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>33.36665634131537</v>
+        <v>41.46929374925077</v>
       </c>
       <c r="H21">
-        <v>11.11841879230409</v>
+        <v>17.40230109673092</v>
       </c>
       <c r="I21">
-        <v>18.03347494661179</v>
+        <v>27.26610157211765</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.27436416626446</v>
+        <v>11.23042855820201</v>
       </c>
       <c r="L21">
-        <v>7.957269629344549</v>
+        <v>10.07317492478567</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.48785033746272</v>
+        <v>14.20634569228063</v>
       </c>
       <c r="C22">
-        <v>7.083411195470749</v>
+        <v>6.690142082582573</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.23278006052438</v>
+        <v>11.15410100607123</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>33.75645791566338</v>
+        <v>41.42949443431876</v>
       </c>
       <c r="H22">
-        <v>11.08720784126902</v>
+        <v>17.36458047687577</v>
       </c>
       <c r="I22">
-        <v>17.98251323707366</v>
+        <v>27.20011217007474</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.77519202449337</v>
+        <v>11.36850466022736</v>
       </c>
       <c r="L22">
-        <v>8.138640977001273</v>
+        <v>10.09410196281504</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.13510754503068</v>
+        <v>14.0984677468149</v>
       </c>
       <c r="C23">
-        <v>6.998462275230617</v>
+        <v>6.661236673911643</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.160283108854667</v>
+        <v>11.15031508731551</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>33.54403741450135</v>
+        <v>41.44970624062795</v>
       </c>
       <c r="H23">
-        <v>11.10288038351616</v>
+        <v>17.38446900670654</v>
       </c>
       <c r="I23">
-        <v>18.00780312673551</v>
+        <v>27.23489194637663</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.50965648621928</v>
+        <v>11.29488016950244</v>
       </c>
       <c r="L23">
-        <v>8.041894811327674</v>
+        <v>10.08279903758068</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.74458204139103</v>
+        <v>13.68621635074343</v>
       </c>
       <c r="C24">
-        <v>6.669863344513019</v>
+        <v>6.549441376778891</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.88984440114023</v>
+        <v>11.13925994511421</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>32.83363438036994</v>
+        <v>41.54881629884042</v>
       </c>
       <c r="H24">
-        <v>11.18313132591188</v>
+        <v>17.46514117003489</v>
       </c>
       <c r="I24">
-        <v>18.14399740532497</v>
+        <v>27.37626501139582</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.4649192578429</v>
+        <v>11.01476405642484</v>
       </c>
       <c r="L24">
-        <v>7.674452359117575</v>
+        <v>10.04295117759316</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.12530909908195</v>
+        <v>13.23618770523022</v>
       </c>
       <c r="C25">
-        <v>6.30082191259765</v>
+        <v>6.424124588967123</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.607680731179007</v>
+        <v>11.13439978431858</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>32.25486539680056</v>
+        <v>41.70348721102989</v>
       </c>
       <c r="H25">
-        <v>11.30977804253381</v>
+        <v>17.5635470754515</v>
       </c>
       <c r="I25">
-        <v>18.36792922347453</v>
+        <v>27.54927162729305</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.25299039230913</v>
+        <v>10.71150905569843</v>
       </c>
       <c r="L25">
-        <v>7.277232477311808</v>
+        <v>10.00642096636884</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9028481088006</v>
+        <v>13.82750801607917</v>
       </c>
       <c r="C2">
-        <v>6.328011044005836</v>
+        <v>6.016819136254526</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.13693434549475</v>
+        <v>7.408884851273492</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>41.85796577197106</v>
+        <v>31.97508315414773</v>
       </c>
       <c r="H2">
-        <v>17.64577311108699</v>
+        <v>11.43331484435079</v>
       </c>
       <c r="I2">
-        <v>27.69421552867239</v>
+        <v>18.59043919806685</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.48891585163557</v>
+        <v>11.28612891872972</v>
       </c>
       <c r="L2">
-        <v>9.985178365051512</v>
+        <v>6.985592189384072</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.67711030025141</v>
+        <v>12.88077057088471</v>
       </c>
       <c r="C3">
-        <v>6.260596087588456</v>
+        <v>5.816978300756733</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.14247955847833</v>
+        <v>7.280147396567631</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>41.98770798483827</v>
+        <v>31.86863738596002</v>
       </c>
       <c r="H3">
-        <v>17.70758112158418</v>
+        <v>11.53402632143376</v>
       </c>
       <c r="I3">
-        <v>27.8033579276712</v>
+        <v>18.77325237051285</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.33935593532371</v>
+        <v>10.58390450303625</v>
       </c>
       <c r="L3">
-        <v>9.974354823361475</v>
+        <v>6.789431323400843</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.53908135891781</v>
+        <v>12.29183228852489</v>
       </c>
       <c r="C4">
-        <v>6.218121665259912</v>
+        <v>5.690784096731751</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.14777588125694</v>
+        <v>7.204187485962127</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>42.07962878965829</v>
+        <v>31.84144117856719</v>
       </c>
       <c r="H4">
-        <v>17.74852778319295</v>
+        <v>11.60366520577238</v>
       </c>
       <c r="I4">
-        <v>27.87574070559022</v>
+        <v>18.90009583934195</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.24845791890527</v>
+        <v>10.12948740868947</v>
       </c>
       <c r="L4">
-        <v>9.969484579386549</v>
+        <v>6.67008660691253</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.48305391754437</v>
+        <v>12.0584972579213</v>
       </c>
       <c r="C5">
-        <v>6.200547786865634</v>
+        <v>5.638508224454347</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.15041032109572</v>
+        <v>7.17402834009386</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>42.12015471211669</v>
+        <v>31.83951731929873</v>
       </c>
       <c r="H5">
-        <v>17.76596668253217</v>
+        <v>11.63392460218072</v>
       </c>
       <c r="I5">
-        <v>27.90658520498286</v>
+        <v>18.95528862894833</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.21169555269707</v>
+        <v>9.938462968420188</v>
       </c>
       <c r="L5">
-        <v>9.967948245778063</v>
+        <v>6.621787925033821</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.47376615000796</v>
+        <v>12.01937101893555</v>
       </c>
       <c r="C6">
-        <v>6.197613838683204</v>
+        <v>5.629777358328663</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.150876537516</v>
+        <v>7.169068991670782</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>42.12706882222449</v>
+        <v>31.83973806364732</v>
       </c>
       <c r="H6">
-        <v>17.76890784732645</v>
+        <v>11.63906049102063</v>
       </c>
       <c r="I6">
-        <v>27.91178826041321</v>
+        <v>18.96466023753007</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.20560936551404</v>
+        <v>9.906390661414529</v>
       </c>
       <c r="L6">
-        <v>9.967720266348955</v>
+        <v>6.613789979507728</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53832475981577</v>
+        <v>12.28871108349315</v>
       </c>
       <c r="C7">
-        <v>6.217885722626796</v>
+        <v>5.690082491287966</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.14780948178412</v>
+        <v>7.203777505424378</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>42.08016293696591</v>
+        <v>31.84137873392089</v>
       </c>
       <c r="H7">
-        <v>17.7487599230835</v>
+        <v>11.60406578165978</v>
       </c>
       <c r="I7">
-        <v>27.87615123041209</v>
+        <v>18.90082621809618</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.24796093877493</v>
+        <v>10.12693484736624</v>
       </c>
       <c r="L7">
-        <v>9.969462042301796</v>
+        <v>6.669433797006934</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.82493965357057</v>
+        <v>13.50800582254706</v>
       </c>
       <c r="C8">
-        <v>6.304994782557253</v>
+        <v>5.948653434106258</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.13845408989004</v>
+        <v>7.363867806404844</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>41.90014778259798</v>
+        <v>31.93020049010261</v>
       </c>
       <c r="H8">
-        <v>17.66646224829217</v>
+        <v>11.46637076452442</v>
       </c>
       <c r="I8">
-        <v>27.73073223506999</v>
+        <v>18.65034011309539</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.43718104349344</v>
+        <v>11.04882389551519</v>
       </c>
       <c r="L8">
-        <v>9.981079117116266</v>
+        <v>6.917762421167763</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.38827038401731</v>
+        <v>15.68697080537726</v>
       </c>
       <c r="C9">
-        <v>6.46695018556598</v>
+        <v>6.427069153106713</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.13508956486825</v>
+        <v>7.701388677429358</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>41.64504582425904</v>
+        <v>32.42605041597044</v>
       </c>
       <c r="H9">
-        <v>17.52887957523238</v>
+        <v>11.26214467292366</v>
       </c>
       <c r="I9">
-        <v>27.4882608019614</v>
+        <v>18.28299355789743</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.81366607304106</v>
+        <v>12.67272544308505</v>
       </c>
       <c r="L9">
-        <v>10.01785450299068</v>
+        <v>7.411024861398389</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79864919051362</v>
+        <v>17.13125805437544</v>
       </c>
       <c r="C10">
-        <v>6.580167379505299</v>
+        <v>6.760205825864738</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.14170665723819</v>
+        <v>7.962529305414072</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.51813564390773</v>
+        <v>33.01103799896943</v>
       </c>
       <c r="H10">
-        <v>17.442347490364</v>
+        <v>11.15798634256827</v>
       </c>
       <c r="I10">
-        <v>27.33627481897953</v>
+        <v>18.10054182854203</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.09095589930993</v>
+        <v>13.75509877656095</v>
       </c>
       <c r="L10">
-        <v>10.05326448242085</v>
+        <v>7.77431754050647</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.983719880657</v>
+        <v>17.75523124818613</v>
       </c>
       <c r="C11">
-        <v>6.63034541802653</v>
+        <v>6.907683810719084</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.14667785489218</v>
+        <v>8.083939130498203</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>41.47369923969604</v>
+        <v>33.32994869349263</v>
       </c>
       <c r="H11">
-        <v>17.40614978490266</v>
+        <v>11.12194789084297</v>
       </c>
       <c r="I11">
-        <v>27.27284064632861</v>
+        <v>18.03936933119672</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.21670944027825</v>
+        <v>14.22391777966354</v>
       </c>
       <c r="L11">
-        <v>10.07115995865406</v>
+        <v>7.939263687973801</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.05350152718983</v>
+        <v>17.98684195568164</v>
       </c>
       <c r="C12">
-        <v>6.649149938433747</v>
+        <v>6.962943612572545</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.14884092583745</v>
+        <v>8.130270701711083</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>41.4587956362907</v>
+        <v>33.45867351061504</v>
       </c>
       <c r="H12">
-        <v>17.39289873077952</v>
+        <v>11.11005652675323</v>
       </c>
       <c r="I12">
-        <v>27.2496426065911</v>
+        <v>18.01959763801417</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.26422964310852</v>
+        <v>14.39810483806719</v>
       </c>
       <c r="L12">
-        <v>10.07819004956744</v>
+        <v>8.001643263412953</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.03848722895055</v>
+        <v>17.93716707934866</v>
       </c>
       <c r="C13">
-        <v>6.64510889950379</v>
+        <v>6.951068508623233</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.14836261496812</v>
+        <v>8.120276814725239</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>41.46191967262286</v>
+        <v>33.4305906434436</v>
       </c>
       <c r="H13">
-        <v>17.39573227634449</v>
+        <v>11.11253739688733</v>
       </c>
       <c r="I13">
-        <v>27.25460206811976</v>
+        <v>18.02370070961846</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.25400045127625</v>
+        <v>14.36073853609471</v>
       </c>
       <c r="L13">
-        <v>10.07666478023551</v>
+        <v>7.988212859839229</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.98946726497818</v>
+        <v>17.77437922973512</v>
       </c>
       <c r="C14">
-        <v>6.631896456864844</v>
+        <v>6.912241824626407</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.14685019737017</v>
+        <v>8.087743821800816</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>41.47243449890068</v>
+        <v>33.34037739187598</v>
       </c>
       <c r="H14">
-        <v>17.40505046375057</v>
+        <v>11.1209336549221</v>
       </c>
       <c r="I14">
-        <v>27.27091561771951</v>
+        <v>18.0376731903748</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.2206212072509</v>
+        <v>14.23831501458887</v>
       </c>
       <c r="L14">
-        <v>10.07173326997411</v>
+        <v>7.944397520633123</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.95939999153409</v>
+        <v>17.67406056673547</v>
       </c>
       <c r="C15">
-        <v>6.623777640673932</v>
+        <v>6.888382949909672</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.14596029371182</v>
+        <v>8.06786227342192</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>41.47912595573858</v>
+        <v>33.28616639943494</v>
       </c>
       <c r="H15">
-        <v>17.41081756535221</v>
+        <v>11.1263090672494</v>
       </c>
       <c r="I15">
-        <v>27.28101541163378</v>
+        <v>18.0466814157926</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.20016115263169</v>
+        <v>14.16289289971749</v>
       </c>
       <c r="L15">
-        <v>10.06874547595689</v>
+        <v>7.917547720109863</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.7865159858237</v>
+        <v>17.08982156309882</v>
       </c>
       <c r="C16">
-        <v>6.576860922339732</v>
+        <v>6.750485661516372</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.14142112253766</v>
+        <v>7.954645780723381</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>41.52130822604136</v>
+        <v>32.99129079324426</v>
       </c>
       <c r="H16">
-        <v>17.44477688723056</v>
+        <v>11.16058025744959</v>
       </c>
       <c r="I16">
-        <v>27.34053542400306</v>
+        <v>18.10500019877948</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.08272600423546</v>
+        <v>13.72398984870243</v>
       </c>
       <c r="L16">
-        <v>10.05213063873118</v>
+        <v>7.763528285060747</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.67999427775943</v>
+        <v>16.72300094130081</v>
       </c>
       <c r="C17">
-        <v>6.547735130708328</v>
+        <v>6.664845385474913</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.13913781178201</v>
+        <v>7.885846336950007</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>41.5505996114868</v>
+        <v>32.82418534941584</v>
       </c>
       <c r="H17">
-        <v>17.46642143096306</v>
+        <v>11.18459592441999</v>
       </c>
       <c r="I17">
-        <v>27.37851215428022</v>
+        <v>18.14654332756994</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.01055227259254</v>
+        <v>13.4487319841486</v>
       </c>
       <c r="L17">
-        <v>10.04239330468089</v>
+        <v>7.668933201049829</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.6185779236241</v>
+        <v>16.50890071376277</v>
       </c>
       <c r="C18">
-        <v>6.530858389777566</v>
+        <v>6.615204320745479</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.13800919050546</v>
+        <v>7.846521995220655</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>41.56869806556448</v>
+        <v>32.73301956242587</v>
       </c>
       <c r="H18">
-        <v>17.47916875868232</v>
+        <v>11.19946889671634</v>
       </c>
       <c r="I18">
-        <v>27.40089218382527</v>
+        <v>18.17247602591825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.96900599141861</v>
+        <v>13.28819057357576</v>
       </c>
       <c r="L18">
-        <v>10.03696110633354</v>
+        <v>7.614496506863591</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.59776014928153</v>
+        <v>16.43587282052561</v>
       </c>
       <c r="C19">
-        <v>6.525123051710594</v>
+        <v>6.598331061262147</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.13765881758257</v>
+        <v>7.833250555535985</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>41.57504035067227</v>
+        <v>32.70299079863536</v>
       </c>
       <c r="H19">
-        <v>17.48353593100309</v>
+        <v>11.20468298956338</v>
       </c>
       <c r="I19">
-        <v>27.40856179342916</v>
+        <v>18.18159894234259</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.95493469157663</v>
+        <v>13.23345144696746</v>
       </c>
       <c r="L19">
-        <v>10.03515089398457</v>
+        <v>7.596061560297603</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.69134950916539</v>
+        <v>16.76237143843161</v>
       </c>
       <c r="C20">
-        <v>6.550848537468493</v>
+        <v>6.674001612416719</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.13936177022705</v>
+        <v>7.893144712888181</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>41.54735195046456</v>
+        <v>32.84145908900186</v>
       </c>
       <c r="H20">
-        <v>17.46408648792068</v>
+        <v>11.18192885500045</v>
       </c>
       <c r="I20">
-        <v>27.37441388800115</v>
+        <v>18.14190824971811</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.0182391192198</v>
+        <v>13.47826316035539</v>
       </c>
       <c r="L20">
-        <v>10.0434124505348</v>
+        <v>7.679006201028983</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.0038743060147</v>
+        <v>17.82232019914246</v>
       </c>
       <c r="C21">
-        <v>6.635782661966223</v>
+        <v>6.923662083327653</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.14728682815244</v>
+        <v>8.097290027793791</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>41.46929374925077</v>
+        <v>33.36665634131572</v>
       </c>
       <c r="H21">
-        <v>17.40230109673092</v>
+        <v>11.11841879230422</v>
       </c>
       <c r="I21">
-        <v>27.26610157211765</v>
+        <v>18.03347494661204</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.23042855820201</v>
+        <v>14.27436416626442</v>
       </c>
       <c r="L21">
-        <v>10.07317492478567</v>
+        <v>7.957269629344525</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.20634569228063</v>
+        <v>18.48785033746266</v>
       </c>
       <c r="C22">
-        <v>6.690142082582573</v>
+        <v>7.083411195470863</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.15410100607123</v>
+        <v>8.232780060524354</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>41.42949443431876</v>
+        <v>33.75645791566371</v>
       </c>
       <c r="H22">
-        <v>17.36458047687577</v>
+        <v>11.08720784126919</v>
       </c>
       <c r="I22">
-        <v>27.20011217007474</v>
+        <v>17.98251323707393</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.36850466022736</v>
+        <v>14.77519202449333</v>
       </c>
       <c r="L22">
-        <v>10.09410196281504</v>
+        <v>8.138640977001263</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.0984677468149</v>
+        <v>18.13510754503066</v>
       </c>
       <c r="C23">
-        <v>6.661236673911643</v>
+        <v>6.998462275230624</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.15031508731551</v>
+        <v>8.160283108854657</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>41.44970624062795</v>
+        <v>33.54403741450156</v>
       </c>
       <c r="H23">
-        <v>17.38446900670654</v>
+        <v>11.10288038351606</v>
       </c>
       <c r="I23">
-        <v>27.23489194637663</v>
+        <v>18.00780312673552</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.29488016950244</v>
+        <v>14.50965648621928</v>
       </c>
       <c r="L23">
-        <v>10.08279903758068</v>
+        <v>8.04189481132766</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.68621635074343</v>
+        <v>16.74458204139104</v>
       </c>
       <c r="C24">
-        <v>6.549441376778891</v>
+        <v>6.669863344513346</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.13925994511421</v>
+        <v>7.889844401140238</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>41.54881629884042</v>
+        <v>32.8336343803698</v>
       </c>
       <c r="H24">
-        <v>17.46514117003489</v>
+        <v>11.18313132591178</v>
       </c>
       <c r="I24">
-        <v>27.37626501139582</v>
+        <v>18.1439974053249</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.01476405642484</v>
+        <v>13.46491925784296</v>
       </c>
       <c r="L24">
-        <v>10.04295117759316</v>
+        <v>7.674452359117553</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23618770523022</v>
+        <v>15.12530909908186</v>
       </c>
       <c r="C25">
-        <v>6.424124588967123</v>
+        <v>6.300821912597867</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.13439978431858</v>
+        <v>7.607680731179102</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>41.70348721102989</v>
+        <v>32.25486539680047</v>
       </c>
       <c r="H25">
-        <v>17.5635470754515</v>
+        <v>11.30977804253376</v>
       </c>
       <c r="I25">
-        <v>27.54927162729305</v>
+        <v>18.36792922347453</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.71150905569843</v>
+        <v>12.25299039230911</v>
       </c>
       <c r="L25">
-        <v>10.00642096636884</v>
+        <v>7.277232477311803</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82750801607917</v>
+        <v>24.56373589028525</v>
       </c>
       <c r="C2">
-        <v>6.016819136254526</v>
+        <v>20.19294735814458</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.408884851273492</v>
+        <v>29.27811542010875</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>31.97508315414773</v>
+        <v>27.65081683670373</v>
       </c>
       <c r="H2">
-        <v>11.43331484435079</v>
+        <v>3.199626968328041</v>
       </c>
       <c r="I2">
-        <v>18.59043919806685</v>
+        <v>3.278430787733929</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.358310830237333</v>
       </c>
       <c r="K2">
-        <v>11.28612891872972</v>
+        <v>12.39015254556045</v>
       </c>
       <c r="L2">
-        <v>6.985592189384072</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.88077057088471</v>
+        <v>22.94594735347017</v>
       </c>
       <c r="C3">
-        <v>5.816978300756733</v>
+        <v>18.89561046496908</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.280147396567631</v>
+        <v>27.35029398089179</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>31.86863738596002</v>
+        <v>26.4567482145726</v>
       </c>
       <c r="H3">
-        <v>11.53402632143376</v>
+        <v>2.918560812477073</v>
       </c>
       <c r="I3">
-        <v>18.77325237051285</v>
+        <v>3.061668389206373</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.275832866373971</v>
       </c>
       <c r="K3">
-        <v>10.58390450303625</v>
+        <v>12.56324226560061</v>
       </c>
       <c r="L3">
-        <v>6.789431323400843</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.29183228852489</v>
+        <v>21.8934150537914</v>
       </c>
       <c r="C4">
-        <v>5.690784096731751</v>
+        <v>18.05911078819303</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.204187485962127</v>
+        <v>26.10163671750771</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.84144117856719</v>
+        <v>25.71561469465301</v>
       </c>
       <c r="H4">
-        <v>11.60366520577238</v>
+        <v>2.740646036704547</v>
       </c>
       <c r="I4">
-        <v>18.90009583934195</v>
+        <v>2.925721206130175</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.229438458916727</v>
       </c>
       <c r="K4">
-        <v>10.12948740868947</v>
+        <v>12.67636845632534</v>
       </c>
       <c r="L4">
-        <v>6.67008660691253</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.0584972579213</v>
+        <v>21.44931293872442</v>
       </c>
       <c r="C5">
-        <v>5.638508224454347</v>
+        <v>17.71889937404866</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.17402834009386</v>
+        <v>25.57605337773795</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.83951731929873</v>
+        <v>25.36720276632359</v>
       </c>
       <c r="H5">
-        <v>11.63392460218072</v>
+        <v>2.666559439582814</v>
       </c>
       <c r="I5">
-        <v>18.95528862894833</v>
+        <v>2.869938337084609</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.203403217539377</v>
       </c>
       <c r="K5">
-        <v>9.938462968420188</v>
+        <v>12.71051429409298</v>
       </c>
       <c r="L5">
-        <v>6.621787925033821</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.01937101893555</v>
+        <v>21.37437713482227</v>
       </c>
       <c r="C6">
-        <v>5.629777358328663</v>
+        <v>17.67491095411642</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.169068991670782</v>
+        <v>25.48738007687314</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.83973806364732</v>
+        <v>25.25459510634383</v>
       </c>
       <c r="H6">
-        <v>11.63906049102063</v>
+        <v>2.653921318267725</v>
       </c>
       <c r="I6">
-        <v>18.96466023753007</v>
+        <v>2.861263412100186</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.189198668814344</v>
       </c>
       <c r="K6">
-        <v>9.906390661414529</v>
+        <v>12.69980061685362</v>
       </c>
       <c r="L6">
-        <v>6.613789979507728</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28871108349315</v>
+        <v>21.88671524368861</v>
       </c>
       <c r="C7">
-        <v>5.690082491287966</v>
+        <v>18.08953972498126</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.203777505424378</v>
+        <v>26.09352428663905</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.84137873392089</v>
+        <v>25.56372583977231</v>
       </c>
       <c r="H7">
-        <v>11.60406578165978</v>
+        <v>2.738976280047416</v>
       </c>
       <c r="I7">
-        <v>18.90082621809618</v>
+        <v>2.926333537189058</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.202013110900891</v>
       </c>
       <c r="K7">
-        <v>10.12693484736624</v>
+        <v>12.63163104636903</v>
       </c>
       <c r="L7">
-        <v>6.669433797006934</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50800582254706</v>
+        <v>24.01721682738528</v>
       </c>
       <c r="C8">
-        <v>5.948653434106258</v>
+        <v>19.79671417388695</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.363867806404844</v>
+        <v>28.62548623057295</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>31.93020049010261</v>
+        <v>27.05608289618865</v>
       </c>
       <c r="H8">
-        <v>11.46637076452442</v>
+        <v>3.102958012135064</v>
       </c>
       <c r="I8">
-        <v>18.65034011309539</v>
+        <v>3.205474669279693</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.293599885080429</v>
       </c>
       <c r="K8">
-        <v>11.04882389551519</v>
+        <v>12.38783723061643</v>
       </c>
       <c r="L8">
-        <v>6.917762421167763</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.68697080537726</v>
+        <v>27.72983316912033</v>
       </c>
       <c r="C9">
-        <v>6.427069153106713</v>
+        <v>22.77309134555024</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.701388677429358</v>
+        <v>33.08110682283545</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>32.42605041597044</v>
+        <v>30.15337345389156</v>
       </c>
       <c r="H9">
-        <v>11.26214467292366</v>
+        <v>3.777179239927817</v>
       </c>
       <c r="I9">
-        <v>18.28299355789743</v>
+        <v>3.730491403058008</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.557418075771338</v>
       </c>
       <c r="K9">
-        <v>12.67272544308505</v>
+        <v>12.05451488134436</v>
       </c>
       <c r="L9">
-        <v>7.411024861398389</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13125805437544</v>
+        <v>30.17133703074404</v>
       </c>
       <c r="C10">
-        <v>6.760205825864738</v>
+        <v>24.70803301961891</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.962529305414072</v>
+        <v>35.16677655195571</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>33.01103799896943</v>
+        <v>31.67698812083856</v>
       </c>
       <c r="H10">
-        <v>11.15798634256827</v>
+        <v>4.209490860329162</v>
       </c>
       <c r="I10">
-        <v>18.10054182854203</v>
+        <v>4.094119582107493</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.635257273894423</v>
       </c>
       <c r="K10">
-        <v>13.75509877656095</v>
+        <v>11.64624710966253</v>
       </c>
       <c r="L10">
-        <v>7.77431754050647</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75523124818613</v>
+        <v>31.1715595721231</v>
       </c>
       <c r="C11">
-        <v>6.907683810719084</v>
+        <v>24.94725604724299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.083939130498203</v>
+        <v>28.5687382204623</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>33.32994869349263</v>
+        <v>26.7512403336122</v>
       </c>
       <c r="H11">
-        <v>11.12194789084297</v>
+        <v>4.559010399453937</v>
       </c>
       <c r="I11">
-        <v>18.03936933119672</v>
+        <v>4.166965183940563</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.5377506929795</v>
       </c>
       <c r="K11">
-        <v>14.22391777966354</v>
+        <v>9.869785734594236</v>
       </c>
       <c r="L11">
-        <v>7.939263687973801</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.98684195568164</v>
+        <v>31.52617070978964</v>
       </c>
       <c r="C12">
-        <v>6.962943612572545</v>
+        <v>24.72080447704298</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.130270701711083</v>
+        <v>22.61729900227732</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>33.45867351061504</v>
+        <v>22.42022570362995</v>
       </c>
       <c r="H12">
-        <v>11.11005652675323</v>
+        <v>5.349016829736205</v>
       </c>
       <c r="I12">
-        <v>18.01959763801417</v>
+        <v>4.162843780340948</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.656566733460275</v>
       </c>
       <c r="K12">
-        <v>14.39810483806719</v>
+        <v>8.748342330983863</v>
       </c>
       <c r="L12">
-        <v>8.001643263412953</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93716707934866</v>
+        <v>31.41732088468063</v>
       </c>
       <c r="C13">
-        <v>6.951068508623233</v>
+        <v>24.15813637467007</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.120276814725239</v>
+        <v>16.69336908495736</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>33.4305906434436</v>
+        <v>17.9725079755266</v>
       </c>
       <c r="H13">
-        <v>11.11253739688733</v>
+        <v>6.353241042161634</v>
       </c>
       <c r="I13">
-        <v>18.02370070961846</v>
+        <v>4.100949478253068</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.860641434924049</v>
       </c>
       <c r="K13">
-        <v>14.36073853609471</v>
+        <v>8.10139661724218</v>
       </c>
       <c r="L13">
-        <v>7.988212859839229</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.77437922973512</v>
+        <v>31.1309759870147</v>
       </c>
       <c r="C14">
-        <v>6.912241824626407</v>
+        <v>23.61483091556166</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.087743821800816</v>
+        <v>12.62522397835444</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>33.34037739187598</v>
+        <v>14.73015106005612</v>
       </c>
       <c r="H14">
-        <v>11.1209336549221</v>
+        <v>7.143093337340078</v>
       </c>
       <c r="I14">
-        <v>18.0376731903748</v>
+        <v>4.033630807150063</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.359048869485563</v>
       </c>
       <c r="K14">
-        <v>14.23831501458887</v>
+        <v>7.957805634196788</v>
       </c>
       <c r="L14">
-        <v>7.944397520633123</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67406056673547</v>
+        <v>30.96011893672016</v>
       </c>
       <c r="C15">
-        <v>6.888382949909672</v>
+        <v>23.41790230207165</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.06786227342192</v>
+        <v>11.64529154113017</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>33.28616639943494</v>
+        <v>13.86757288792803</v>
       </c>
       <c r="H15">
-        <v>11.1263090672494</v>
+        <v>7.324305473113737</v>
       </c>
       <c r="I15">
-        <v>18.0466814157926</v>
+        <v>4.004178836059276</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.248679346862525</v>
       </c>
       <c r="K15">
-        <v>14.16289289971749</v>
+        <v>7.990987901212721</v>
       </c>
       <c r="L15">
-        <v>7.917547720109863</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08982156309882</v>
+        <v>29.98233370493777</v>
       </c>
       <c r="C16">
-        <v>6.750485661516372</v>
+        <v>22.71747974750282</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.954645780723381</v>
+        <v>11.4726419538719</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>32.99129079324426</v>
+        <v>13.76160358149075</v>
       </c>
       <c r="H16">
-        <v>11.16058025744959</v>
+        <v>7.036675597235402</v>
       </c>
       <c r="I16">
-        <v>18.10500019877948</v>
+        <v>3.864078977011074</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.374350131395389</v>
       </c>
       <c r="K16">
-        <v>13.72398984870243</v>
+        <v>8.329399166280616</v>
       </c>
       <c r="L16">
-        <v>7.763528285060747</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.72300094130081</v>
+        <v>29.37410982850261</v>
       </c>
       <c r="C17">
-        <v>6.664845385474913</v>
+        <v>22.47255333597955</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.885846336950007</v>
+        <v>13.54524610572455</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>32.82418534941584</v>
+        <v>15.46328355200153</v>
       </c>
       <c r="H17">
-        <v>11.18459592441999</v>
+        <v>6.343135431401508</v>
       </c>
       <c r="I17">
-        <v>18.14654332756994</v>
+        <v>3.791314157544426</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.720111544399458</v>
       </c>
       <c r="K17">
-        <v>13.4487319841486</v>
+        <v>8.616263378324247</v>
       </c>
       <c r="L17">
-        <v>7.668933201049829</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.50890071376277</v>
+        <v>29.03185828224427</v>
       </c>
       <c r="C18">
-        <v>6.615204320745479</v>
+        <v>22.58362705034715</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.846521995220655</v>
+        <v>18.09781742629799</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>32.73301956242587</v>
+        <v>19.01271724905786</v>
       </c>
       <c r="H18">
-        <v>11.19946889671634</v>
+        <v>5.310469211606466</v>
       </c>
       <c r="I18">
-        <v>18.17247602591825</v>
+        <v>3.771929266549543</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.347966549097647</v>
       </c>
       <c r="K18">
-        <v>13.28819057357576</v>
+        <v>9.103841880895414</v>
       </c>
       <c r="L18">
-        <v>7.614496506863591</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.43587282052561</v>
+        <v>28.9374857642622</v>
       </c>
       <c r="C19">
-        <v>6.598331061262147</v>
+        <v>23.03286895392776</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.833250555535985</v>
+        <v>24.38671447454173</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>32.70299079863536</v>
+        <v>23.54580766114156</v>
       </c>
       <c r="H19">
-        <v>11.20468298956338</v>
+        <v>4.344193229383517</v>
       </c>
       <c r="I19">
-        <v>18.18159894234259</v>
+        <v>3.811053152016122</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.167517448169146</v>
       </c>
       <c r="K19">
-        <v>13.23345144696746</v>
+        <v>9.936936082138253</v>
       </c>
       <c r="L19">
-        <v>7.596061560297603</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.76237143843161</v>
+        <v>29.54665634638027</v>
       </c>
       <c r="C20">
-        <v>6.674001612416719</v>
+        <v>24.29319587077972</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.893144712888181</v>
+        <v>34.58821906277863</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>32.84145908900186</v>
+        <v>30.8709945255071</v>
       </c>
       <c r="H20">
-        <v>11.18192885500045</v>
+        <v>4.092960031089921</v>
       </c>
       <c r="I20">
-        <v>18.14190824971811</v>
+        <v>4.003220733478764</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.527901636249354</v>
       </c>
       <c r="K20">
-        <v>13.47826316035539</v>
+        <v>11.59812591649994</v>
       </c>
       <c r="L20">
-        <v>7.679006201028983</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.82232019914246</v>
+        <v>31.34347766454916</v>
       </c>
       <c r="C21">
-        <v>6.923662083327653</v>
+        <v>25.81467681271492</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.097290027793791</v>
+        <v>37.4713246898274</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>33.36665634131572</v>
+        <v>33.10819153230791</v>
       </c>
       <c r="H21">
-        <v>11.11841879230422</v>
+        <v>4.482466845766869</v>
       </c>
       <c r="I21">
-        <v>18.03347494661204</v>
+        <v>4.296471783948987</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.815999700301212</v>
       </c>
       <c r="K21">
-        <v>14.27436416626442</v>
+        <v>11.62935976103589</v>
       </c>
       <c r="L21">
-        <v>7.957269629344525</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.48785033746266</v>
+        <v>32.46615658940023</v>
       </c>
       <c r="C22">
-        <v>7.083411195470863</v>
+        <v>26.70485940995038</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.232780060524354</v>
+        <v>38.84674740337636</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>33.75645791566371</v>
+        <v>34.37374996474792</v>
       </c>
       <c r="H22">
-        <v>11.08720784126919</v>
+        <v>4.713254294968131</v>
       </c>
       <c r="I22">
-        <v>17.98251323707393</v>
+        <v>4.479326496603302</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.975950238437704</v>
       </c>
       <c r="K22">
-        <v>14.77519202449333</v>
+        <v>11.62862303465328</v>
       </c>
       <c r="L22">
-        <v>8.138640977001263</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.13510754503066</v>
+        <v>31.87215301170756</v>
       </c>
       <c r="C23">
-        <v>6.998462275230624</v>
+        <v>26.2027454196767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.160283108854657</v>
+        <v>38.11848356479827</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>33.54403741450156</v>
+        <v>33.83361917538929</v>
       </c>
       <c r="H23">
-        <v>11.10288038351606</v>
+        <v>4.590984761323816</v>
       </c>
       <c r="I23">
-        <v>18.00780312673552</v>
+        <v>4.38020811249428</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.919365797147709</v>
       </c>
       <c r="K23">
-        <v>14.50965648621928</v>
+        <v>11.68300030123886</v>
       </c>
       <c r="L23">
-        <v>8.04189481132766</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.74458204139104</v>
+        <v>29.5225607786639</v>
       </c>
       <c r="C24">
-        <v>6.669863344513346</v>
+        <v>24.27973157119652</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.889844401140238</v>
+        <v>35.25230384823686</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>32.8336343803698</v>
+        <v>31.56211568040865</v>
       </c>
       <c r="H24">
-        <v>11.18313132591178</v>
+        <v>4.120587562537396</v>
       </c>
       <c r="I24">
-        <v>18.1439974053249</v>
+        <v>4.004508625324608</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.672061057288905</v>
       </c>
       <c r="K24">
-        <v>13.46491925784296</v>
+        <v>11.83141639682262</v>
       </c>
       <c r="L24">
-        <v>7.674452359117553</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.12530909908186</v>
+        <v>26.77373092347698</v>
       </c>
       <c r="C25">
-        <v>6.300821912597867</v>
+        <v>22.05432385809011</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.607680731179102</v>
+        <v>31.92812814296511</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>32.25486539680047</v>
+        <v>29.09115387763766</v>
       </c>
       <c r="H25">
-        <v>11.30977804253376</v>
+        <v>3.597819779892752</v>
       </c>
       <c r="I25">
-        <v>18.36792922347453</v>
+        <v>3.592690358194699</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.434563051761208</v>
       </c>
       <c r="K25">
-        <v>12.25299039230911</v>
+        <v>12.05322744559806</v>
       </c>
       <c r="L25">
-        <v>7.277232477311803</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.56373589028525</v>
+        <v>24.54753631054617</v>
       </c>
       <c r="C2">
-        <v>20.19294735814458</v>
+        <v>20.56658563172012</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.27811542010875</v>
+        <v>29.22498570519005</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>27.65081683670373</v>
+        <v>25.14969502620497</v>
       </c>
       <c r="H2">
-        <v>3.199626968328041</v>
+        <v>3.166265251589241</v>
       </c>
       <c r="I2">
-        <v>3.278430787733929</v>
+        <v>3.247839895218258</v>
       </c>
       <c r="J2">
-        <v>9.358310830237333</v>
+        <v>9.60514212695654</v>
       </c>
       <c r="K2">
-        <v>12.39015254556045</v>
+        <v>11.76929352708223</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.91669514514929</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.53773398284059</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.94594735347017</v>
+        <v>22.94594910823236</v>
       </c>
       <c r="C3">
-        <v>18.89561046496908</v>
+        <v>19.18766433767096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.35029398089179</v>
+        <v>27.32110971442849</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326741</v>
       </c>
       <c r="G3">
-        <v>26.4567482145726</v>
+        <v>24.26702537255093</v>
       </c>
       <c r="H3">
-        <v>2.918560812477073</v>
+        <v>2.900341615698713</v>
       </c>
       <c r="I3">
-        <v>3.061668389206373</v>
+        <v>3.06261722622502</v>
       </c>
       <c r="J3">
-        <v>9.275832866373971</v>
+        <v>9.548797907106055</v>
       </c>
       <c r="K3">
-        <v>12.56324226560061</v>
+        <v>12.02583826568337</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.15065212246281</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.681824391423064</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.8934150537914</v>
+        <v>21.90358262781758</v>
       </c>
       <c r="C4">
-        <v>18.05911078819303</v>
+        <v>18.29689026379608</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.10163671750771</v>
+        <v>26.08745663869113</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>26.79314218379238</v>
       </c>
       <c r="G4">
-        <v>25.71561469465301</v>
+        <v>23.72575380630073</v>
       </c>
       <c r="H4">
-        <v>2.740646036704547</v>
+        <v>2.731844281123133</v>
       </c>
       <c r="I4">
-        <v>2.925721206130175</v>
+        <v>2.946525919666913</v>
       </c>
       <c r="J4">
-        <v>9.229438458916727</v>
+        <v>9.514687948370756</v>
       </c>
       <c r="K4">
-        <v>12.67636845632534</v>
+        <v>12.18686836277076</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.29628993557765</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.797417631111732</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.44931293872442</v>
+        <v>21.46371719195381</v>
       </c>
       <c r="C5">
-        <v>17.71889937404866</v>
+        <v>17.93227545743255</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.57605337773795</v>
+        <v>25.56812756616422</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>25.36720276632359</v>
+        <v>23.46635109175338</v>
       </c>
       <c r="H5">
-        <v>2.666559439582814</v>
+        <v>2.661653896372228</v>
       </c>
       <c r="I5">
-        <v>2.869938337084609</v>
+        <v>2.899246997665737</v>
       </c>
       <c r="J5">
-        <v>9.203403217539377</v>
+        <v>9.494199251673678</v>
       </c>
       <c r="K5">
-        <v>12.71051429409298</v>
+        <v>12.24257794148408</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.34665052568678</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.844472906119238</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.37437713482227</v>
+        <v>21.3895101833105</v>
       </c>
       <c r="C6">
-        <v>17.67491095411642</v>
+        <v>17.88265919868921</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.48738007687314</v>
+        <v>25.48054605087603</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>25.25459510634383</v>
+        <v>23.37556724127289</v>
       </c>
       <c r="H6">
-        <v>2.653921318267725</v>
+        <v>2.649693387861381</v>
       </c>
       <c r="I6">
-        <v>2.861263412100186</v>
+        <v>2.89237531198348</v>
       </c>
       <c r="J6">
-        <v>9.189198668814344</v>
+        <v>9.482640277996371</v>
       </c>
       <c r="K6">
-        <v>12.69980061685362</v>
+        <v>12.2388196762047</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.34347354313495</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.844851067419057</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88671524368861</v>
+        <v>21.89657010177613</v>
       </c>
       <c r="C7">
-        <v>18.08953972498126</v>
+        <v>18.30830822569753</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.09352428663905</v>
+        <v>26.07860420644317</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>25.56372583977231</v>
+        <v>23.64533210614789</v>
       </c>
       <c r="H7">
-        <v>2.738976280047416</v>
+        <v>2.729712968929651</v>
       </c>
       <c r="I7">
-        <v>2.926333537189058</v>
+        <v>2.947416003088406</v>
       </c>
       <c r="J7">
-        <v>9.202013110900891</v>
+        <v>9.436400865373642</v>
       </c>
       <c r="K7">
-        <v>12.63163104636903</v>
+        <v>12.1358793410676</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.2521118257812</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.765400124530164</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.01721682738528</v>
+        <v>24.00534237269735</v>
       </c>
       <c r="C8">
-        <v>19.79671417388695</v>
+        <v>20.09314357268286</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.62548623057295</v>
+        <v>28.57782612705951</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882484</v>
       </c>
       <c r="G8">
-        <v>27.05608289618865</v>
+        <v>24.84939658593564</v>
       </c>
       <c r="H8">
-        <v>3.102958012135064</v>
+        <v>3.073064435643336</v>
       </c>
       <c r="I8">
-        <v>3.205474669279693</v>
+        <v>3.184329593906151</v>
       </c>
       <c r="J8">
-        <v>9.293599885080429</v>
+        <v>9.375119673838141</v>
       </c>
       <c r="K8">
-        <v>12.38783723061643</v>
+        <v>11.75729895241455</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.91793466971968</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.507043209240353</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.72983316912033</v>
+        <v>27.67755303838804</v>
       </c>
       <c r="C9">
-        <v>22.77309134555024</v>
+        <v>23.24878057143604</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.08110682283545</v>
+        <v>32.97370002501806</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146112</v>
       </c>
       <c r="G9">
-        <v>30.15337345389156</v>
+        <v>27.23637172787917</v>
       </c>
       <c r="H9">
-        <v>3.777179239927817</v>
+        <v>3.709524432834142</v>
       </c>
       <c r="I9">
-        <v>3.730491403058008</v>
+        <v>3.63148785175081</v>
       </c>
       <c r="J9">
-        <v>9.557418075771338</v>
+        <v>9.499709484068502</v>
       </c>
       <c r="K9">
-        <v>12.05451488134436</v>
+        <v>11.1671905274231</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.37704164473814</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.3215683984038</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.17133703074404</v>
+        <v>30.0879416791868</v>
       </c>
       <c r="C10">
-        <v>24.70803301961891</v>
+        <v>25.2048466962014</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>35.16677655195571</v>
+        <v>35.01185262155489</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>31.67698812083856</v>
+        <v>28.6684741072649</v>
       </c>
       <c r="H10">
-        <v>4.209490860329162</v>
+        <v>4.11273400704294</v>
       </c>
       <c r="I10">
-        <v>4.094119582107493</v>
+        <v>3.938241698163533</v>
       </c>
       <c r="J10">
-        <v>9.635257273894423</v>
+        <v>9.190758252082459</v>
       </c>
       <c r="K10">
-        <v>11.64624710966253</v>
+        <v>10.52641484063201</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.845677636667613</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.12520911409473</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.1715595721231</v>
+        <v>31.08036691721879</v>
       </c>
       <c r="C11">
-        <v>24.94725604724299</v>
+        <v>25.1343275124684</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.5687382204623</v>
+        <v>28.39144324817022</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>26.7512403336122</v>
+        <v>25.10111212026133</v>
       </c>
       <c r="H11">
-        <v>4.559010399453937</v>
+        <v>4.465907881844537</v>
       </c>
       <c r="I11">
-        <v>4.166965183940563</v>
+        <v>3.996672500739364</v>
       </c>
       <c r="J11">
-        <v>8.5377506929795</v>
+        <v>7.816033947048454</v>
       </c>
       <c r="K11">
-        <v>9.869785734594236</v>
+        <v>9.135905825456874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.003545096710216</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.856520416491478</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.52617070978964</v>
+        <v>31.43479616826595</v>
       </c>
       <c r="C12">
-        <v>24.72080447704298</v>
+        <v>24.68473873806526</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.61729900227732</v>
+        <v>22.4230930270919</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>22.42022570362995</v>
+        <v>21.7560466044308</v>
       </c>
       <c r="H12">
-        <v>5.349016829736205</v>
+        <v>5.272515000819648</v>
       </c>
       <c r="I12">
-        <v>4.162843780340948</v>
+        <v>3.990696416587936</v>
       </c>
       <c r="J12">
-        <v>7.656566733460275</v>
+        <v>7.055496456396375</v>
       </c>
       <c r="K12">
-        <v>8.748342330983863</v>
+        <v>8.44759007109119</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.657891834029316</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.053951165011491</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.41732088468063</v>
+        <v>31.33215770337886</v>
       </c>
       <c r="C13">
-        <v>24.15813637467007</v>
+        <v>23.96845819638448</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.69336908495736</v>
+        <v>16.48110270632592</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>17.9725079755266</v>
+        <v>17.9941642927477</v>
       </c>
       <c r="H13">
-        <v>6.353241042161634</v>
+        <v>6.295262033397946</v>
       </c>
       <c r="I13">
-        <v>4.100949478253068</v>
+        <v>3.939064616078224</v>
       </c>
       <c r="J13">
-        <v>6.860641434924049</v>
+        <v>6.696881610828529</v>
       </c>
       <c r="K13">
-        <v>8.10139661724218</v>
+        <v>8.213866201145425</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.572575434130357</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.640302723733301</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.1309759870147</v>
+        <v>31.0527170103983</v>
       </c>
       <c r="C14">
-        <v>23.61483091556166</v>
+        <v>23.34457029409504</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.62522397835444</v>
+        <v>12.39197405730099</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>14.73015106005612</v>
+        <v>15.10245626417221</v>
       </c>
       <c r="H14">
-        <v>7.143093337340078</v>
+        <v>7.096672459860251</v>
       </c>
       <c r="I14">
-        <v>4.033630807150063</v>
+        <v>3.884259640459922</v>
       </c>
       <c r="J14">
-        <v>6.359048869485563</v>
+        <v>6.577805159777458</v>
       </c>
       <c r="K14">
-        <v>7.957805634196788</v>
+        <v>8.256075556706225</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.609082127103171</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.594574018087554</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96011893672016</v>
+        <v>30.88499462152834</v>
       </c>
       <c r="C15">
-        <v>23.41790230207165</v>
+        <v>23.13910274486453</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.64529154113017</v>
+        <v>11.40815337802963</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>13.86757288792803</v>
+        <v>14.27263472594796</v>
       </c>
       <c r="H15">
-        <v>7.324305473113737</v>
+        <v>7.28109604778034</v>
       </c>
       <c r="I15">
-        <v>4.004178836059276</v>
+        <v>3.861070459656196</v>
       </c>
       <c r="J15">
-        <v>6.248679346862525</v>
+        <v>6.588666328650371</v>
       </c>
       <c r="K15">
-        <v>7.990987901212721</v>
+        <v>8.310961948548073</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.633702798050505</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.639268034667837</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98233370493777</v>
+        <v>29.92150645197796</v>
       </c>
       <c r="C16">
-        <v>22.71747974750282</v>
+        <v>22.54542013944672</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.4726419538719</v>
+        <v>11.27433448402223</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>13.76160358149075</v>
+        <v>13.69436343793181</v>
       </c>
       <c r="H16">
-        <v>7.036675597235402</v>
+        <v>7.000715197201145</v>
       </c>
       <c r="I16">
-        <v>3.864078977011074</v>
+        <v>3.748649231294429</v>
       </c>
       <c r="J16">
-        <v>6.374350131395389</v>
+        <v>6.994080922470093</v>
       </c>
       <c r="K16">
-        <v>8.329399166280616</v>
+        <v>8.592060287488341</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.722187776553969</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.947567869351724</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.37410982850261</v>
+        <v>29.32035418050035</v>
       </c>
       <c r="C17">
-        <v>22.47255333597955</v>
+        <v>22.41162839546186</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.54524610572455</v>
+        <v>13.38521608928363</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>15.46328355200153</v>
+        <v>14.92609088089669</v>
       </c>
       <c r="H17">
-        <v>6.343135431401508</v>
+        <v>6.30767878592047</v>
       </c>
       <c r="I17">
-        <v>3.791314157544426</v>
+        <v>3.690035482995198</v>
       </c>
       <c r="J17">
-        <v>6.720111544399458</v>
+        <v>7.3938031040075</v>
       </c>
       <c r="K17">
-        <v>8.616263378324247</v>
+        <v>8.815076705281498</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.818495589556084</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.182719584099968</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.03185828224427</v>
+        <v>28.97981060259616</v>
       </c>
       <c r="C18">
-        <v>22.58362705034715</v>
+        <v>22.67725122362279</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.09781742629799</v>
+        <v>17.96609083046923</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>19.01271724905786</v>
+        <v>17.8246041552239</v>
       </c>
       <c r="H18">
-        <v>5.310469211606466</v>
+        <v>5.268527096943827</v>
       </c>
       <c r="I18">
-        <v>3.771929266549543</v>
+        <v>3.673641733067447</v>
       </c>
       <c r="J18">
-        <v>7.347966549097647</v>
+        <v>7.926249544521305</v>
       </c>
       <c r="K18">
-        <v>9.103841880895414</v>
+        <v>9.149533540276892</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.015893229983172</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.523334908135126</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.9374857642622</v>
+        <v>28.88204404976172</v>
       </c>
       <c r="C19">
-        <v>23.03286895392776</v>
+        <v>23.30591213173986</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.38671447454173</v>
+        <v>24.26557458364565</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>23.54580766114156</v>
+        <v>21.58090592825214</v>
       </c>
       <c r="H19">
-        <v>4.344193229383517</v>
+        <v>4.287330212749704</v>
       </c>
       <c r="I19">
-        <v>3.811053152016122</v>
+        <v>3.707662107117616</v>
       </c>
       <c r="J19">
-        <v>8.167517448169146</v>
+        <v>8.553056383050228</v>
       </c>
       <c r="K19">
-        <v>9.936936082138253</v>
+        <v>9.681488657509254</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.355269005019817</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.066423944832668</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.54665634638027</v>
+        <v>29.47304271179332</v>
       </c>
       <c r="C20">
-        <v>24.29319587077972</v>
+        <v>24.81452015579098</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>34.58821906277863</v>
+        <v>34.44903462510171</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>30.8709945255071</v>
+        <v>27.7797770360946</v>
       </c>
       <c r="H20">
-        <v>4.092960031089921</v>
+        <v>4.005820510407876</v>
       </c>
       <c r="I20">
-        <v>4.003220733478764</v>
+        <v>3.868057298089469</v>
       </c>
       <c r="J20">
-        <v>9.527901636249354</v>
+        <v>9.390386813806931</v>
       </c>
       <c r="K20">
-        <v>11.59812591649994</v>
+        <v>10.63766228274774</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.947634628711246</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.114519830382653</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.34347766454916</v>
+        <v>31.23739970241179</v>
       </c>
       <c r="C21">
-        <v>25.81467681271492</v>
+        <v>26.18075771687748</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.4713246898274</v>
+        <v>37.27978543197501</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>33.10819153230791</v>
+        <v>30.60090650071914</v>
       </c>
       <c r="H21">
-        <v>4.482466845766869</v>
+        <v>4.362525266624473</v>
       </c>
       <c r="I21">
-        <v>4.296471783948987</v>
+        <v>4.102633269406401</v>
       </c>
       <c r="J21">
-        <v>9.815999700301212</v>
+        <v>8.383443941960413</v>
       </c>
       <c r="K21">
-        <v>11.62935976103589</v>
+        <v>10.07496653141187</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.516932738359712</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.927201142807337</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.46615658940023</v>
+        <v>32.33886947531373</v>
       </c>
       <c r="C22">
-        <v>26.70485940995038</v>
+        <v>26.95114238428348</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38.84674740337636</v>
+        <v>38.62102188072657</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>34.37374996474792</v>
+        <v>32.33409463472633</v>
       </c>
       <c r="H22">
-        <v>4.713254294968131</v>
+        <v>4.572404713043862</v>
       </c>
       <c r="I22">
-        <v>4.479326496603302</v>
+        <v>4.246964796009853</v>
       </c>
       <c r="J22">
-        <v>9.975950238437704</v>
+        <v>7.688716509629471</v>
       </c>
       <c r="K22">
-        <v>11.62862303465328</v>
+        <v>9.669440369642299</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.226789668531033</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.785607846447151</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.87215301170756</v>
+        <v>31.75688384470836</v>
       </c>
       <c r="C23">
-        <v>26.2027454196767</v>
+        <v>26.54447034984487</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>38.11848356479827</v>
+        <v>37.91247702241794</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>33.83361917538929</v>
+        <v>31.41350110855721</v>
       </c>
       <c r="H23">
-        <v>4.590984761323816</v>
+        <v>4.46221468339226</v>
       </c>
       <c r="I23">
-        <v>4.38020811249428</v>
+        <v>4.168472552518799</v>
       </c>
       <c r="J23">
-        <v>9.919365797147709</v>
+        <v>8.193758735011533</v>
       </c>
       <c r="K23">
-        <v>11.68300030123886</v>
+        <v>9.964240890633057</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.422632179108655</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.940459493567915</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.5225607786639</v>
+        <v>29.4483263421178</v>
       </c>
       <c r="C24">
-        <v>24.27973157119652</v>
+        <v>24.82642462236636</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>35.25230384823686</v>
+        <v>35.11256304960546</v>
       </c>
       <c r="F24">
-        <v>36.85121910575438</v>
+        <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>31.56211568040865</v>
+        <v>28.35319171450471</v>
       </c>
       <c r="H24">
-        <v>4.120587562537396</v>
+        <v>4.032763451048639</v>
       </c>
       <c r="I24">
-        <v>4.004508625324608</v>
+        <v>3.866497833258172</v>
       </c>
       <c r="J24">
-        <v>9.672061057288905</v>
+        <v>9.509877193629551</v>
       </c>
       <c r="K24">
-        <v>11.83141639682262</v>
+        <v>10.80352158314584</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.05336157438154</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.269798021332064</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.77373092347698</v>
+        <v>26.73308084501254</v>
       </c>
       <c r="C25">
-        <v>22.05432385809011</v>
+        <v>22.49639542806941</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>31.92812814296511</v>
+        <v>31.83830774092374</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>29.09115387763766</v>
+        <v>26.32035445517039</v>
       </c>
       <c r="H25">
-        <v>3.597819779892752</v>
+        <v>3.54122099113108</v>
       </c>
       <c r="I25">
-        <v>3.592690358194699</v>
+        <v>3.517295402444537</v>
       </c>
       <c r="J25">
-        <v>9.434563051761208</v>
+        <v>9.504290449415933</v>
       </c>
       <c r="K25">
-        <v>12.05322744559806</v>
+        <v>11.28286985542037</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.49426368210349</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.308291495691298</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
